--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 3/W3_V5 ApplyNames.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 3/W3_V5 ApplyNames.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9C4127-34BF-4492-91FF-49F1096C2BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24686" windowHeight="11640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
     <sheet name="Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Staff!$A$4:$H$24</definedName>
@@ -31,11 +33,12 @@
     <definedName name="Last_Review">Staff!$L$4:$L$38</definedName>
     <definedName name="Location">Staff!$I$4:$I$38</definedName>
     <definedName name="Next_Review">Staff!$M$4:$M$38</definedName>
+    <definedName name="Package">Staff!$P$4:$P$38</definedName>
     <definedName name="Pension">Staff!$O$4:$O$38</definedName>
     <definedName name="Pension_Rate">Staff!$P$1</definedName>
     <definedName name="Years_Service">Staff!$G$4:$G$38</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="197">
   <si>
     <t>Emp ID</t>
   </si>
@@ -558,12 +561,90 @@
   </si>
   <si>
     <t>Quick Facts</t>
+  </si>
+  <si>
+    <t>Annual_Salary</t>
+  </si>
+  <si>
+    <t>=Staff!$N$4:$N$38</t>
+  </si>
+  <si>
+    <t>Date_of_Hire</t>
+  </si>
+  <si>
+    <t>=Staff!$F$4:$F$38</t>
+  </si>
+  <si>
+    <t>=Staff!$H$4:$H$38</t>
+  </si>
+  <si>
+    <t>=Staff!$E$4:$E$38</t>
+  </si>
+  <si>
+    <t>Emp_ID</t>
+  </si>
+  <si>
+    <t>=Staff!$A$4:$A$38</t>
+  </si>
+  <si>
+    <t>EmpID</t>
+  </si>
+  <si>
+    <t>=Staff!$K$4:$K$38</t>
+  </si>
+  <si>
+    <t>=Staff!$C$4:$C$38</t>
+  </si>
+  <si>
+    <t>=Staff!$J$4:$J$38</t>
+  </si>
+  <si>
+    <t>=Staff!$D$4:$D$38</t>
+  </si>
+  <si>
+    <t>=Staff!$B$4:$B$38</t>
+  </si>
+  <si>
+    <t>Last_Review</t>
+  </si>
+  <si>
+    <t>=Staff!$L$4:$L$38</t>
+  </si>
+  <si>
+    <t>=Staff!$I$4:$I$38</t>
+  </si>
+  <si>
+    <t>Next_Review</t>
+  </si>
+  <si>
+    <t>=Staff!$M$4:$M$38</t>
+  </si>
+  <si>
+    <t>=Staff!$P$4:$P$38</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>=Staff!$O$4:$O$38</t>
+  </si>
+  <si>
+    <t>Pension_Rate</t>
+  </si>
+  <si>
+    <t>=Staff!$P$1</t>
+  </si>
+  <si>
+    <t>Years_Service</t>
+  </si>
+  <si>
+    <t>=Staff!$G$4:$G$38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -735,11 +816,11 @@
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1058,35 +1139,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.765625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.15234375" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.23046875" customWidth="1"/>
-    <col min="8" max="8" width="17.69140625" customWidth="1"/>
-    <col min="9" max="9" width="16.07421875" customWidth="1"/>
-    <col min="10" max="10" width="10.4609375" customWidth="1"/>
-    <col min="11" max="11" width="12.765625" customWidth="1"/>
-    <col min="12" max="13" width="14.15234375" customWidth="1"/>
-    <col min="14" max="14" width="12.4609375" customWidth="1"/>
-    <col min="15" max="15" width="11.07421875" customWidth="1"/>
-    <col min="16" max="16" width="11.3046875" customWidth="1"/>
-    <col min="18" max="18" width="22.69140625" customWidth="1"/>
-    <col min="19" max="19" width="17.53515625" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>117</v>
       </c>
@@ -1097,7 +1178,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="31.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1146,12 +1227,12 @@
       <c r="P3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S3" s="19"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1173,7 +1254,7 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G38" ca="1" si="1">YEARFRAC(F4,TODAY())</f>
-        <v>16.405555555555555</v>
+        <v>19.68611111111111</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>33</v>
@@ -1200,22 +1281,22 @@
         <v>101400</v>
       </c>
       <c r="O4" s="13">
-        <f>N4*Pension_Rate</f>
+        <f t="shared" ref="O4:O38" si="5">N4*Pension_Rate</f>
         <v>9126</v>
       </c>
       <c r="P4" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" ref="P4:P38" si="6">Annual_Salary+Pension</f>
         <v>110526</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="18" t="s">
         <v>168</v>
       </c>
       <c r="S4" s="17">
-        <f>SUM($P$4:$P$38)</f>
+        <f>SUM(Package)</f>
         <v>2134656</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1318,7 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>16.333333333333332</v>
+        <v>19.613888888888887</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>80</v>
@@ -1264,14 +1345,14 @@
         <v>70300</v>
       </c>
       <c r="O5" s="13">
-        <f>N5*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>6327</v>
       </c>
       <c r="P5" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>76627</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="18" t="s">
         <v>169</v>
       </c>
       <c r="S5" s="17">
@@ -1279,7 +1360,7 @@
         <v>55954.285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1382,7 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>14.794444444444444</v>
+        <v>18.074999999999999</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>72</v>
@@ -1328,14 +1409,14 @@
         <v>68800</v>
       </c>
       <c r="O6" s="13">
-        <f>N6*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>6192</v>
       </c>
       <c r="P6" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>74992</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="18" t="s">
         <v>165</v>
       </c>
       <c r="S6" s="16">
@@ -1343,7 +1424,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -1365,7 +1446,7 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>13.180555555555555</v>
+        <v>16.461111111111112</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>35</v>
@@ -1392,14 +1473,14 @@
         <v>59200</v>
       </c>
       <c r="O7" s="13">
-        <f>N7*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5328</v>
       </c>
       <c r="P7" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>64528</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="18" t="s">
         <v>164</v>
       </c>
       <c r="S7" s="16">
@@ -1407,7 +1488,7 @@
         <v>42874</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>86</v>
       </c>
@@ -1429,7 +1510,7 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.95</v>
+        <v>15.230555555555556</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>72</v>
@@ -1456,15 +1537,15 @@
         <v>62900</v>
       </c>
       <c r="O8" s="13">
-        <f>N8*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5661</v>
       </c>
       <c r="P8" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>68561</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -1486,7 +1567,7 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.416666666666666</v>
+        <v>14.697222222222223</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>35</v>
@@ -1513,15 +1594,15 @@
         <v>58400</v>
       </c>
       <c r="O9" s="13">
-        <f>N9*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5256</v>
       </c>
       <c r="P9" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>63656</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1543,7 +1624,7 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.263888888888889</v>
+        <v>14.544444444444444</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>72</v>
@@ -1570,15 +1651,15 @@
         <v>59200</v>
       </c>
       <c r="O10" s="13">
-        <f>N10*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5328</v>
       </c>
       <c r="P10" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>64528</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>89</v>
       </c>
@@ -1600,7 +1681,7 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10.652777777777779</v>
+        <v>13.933333333333334</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>20</v>
@@ -1627,15 +1708,15 @@
         <v>51600</v>
       </c>
       <c r="O11" s="13">
-        <f>N11*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4644</v>
       </c>
       <c r="P11" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>56244</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -1657,7 +1738,7 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2055555555555557</v>
+        <v>12.486111111111111</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>72</v>
@@ -1684,15 +1765,15 @@
         <v>58200</v>
       </c>
       <c r="O12" s="13">
-        <f>N12*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5238</v>
       </c>
       <c r="P12" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>63438</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>91</v>
       </c>
@@ -1714,7 +1795,7 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8361111111111104</v>
+        <v>12.116666666666667</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
@@ -1741,15 +1822,15 @@
         <v>55800</v>
       </c>
       <c r="O13" s="13">
-        <f>N13*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5022</v>
       </c>
       <c r="P13" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>60822</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
@@ -1771,7 +1852,7 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5388888888888888</v>
+        <v>10.819444444444445</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>72</v>
@@ -1798,15 +1879,15 @@
         <v>55500</v>
       </c>
       <c r="O14" s="13">
-        <f>N14*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4995</v>
       </c>
       <c r="P14" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>60495</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>93</v>
       </c>
@@ -1828,7 +1909,7 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3777777777777782</v>
+        <v>10.658333333333333</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>80</v>
@@ -1855,15 +1936,15 @@
         <v>48400</v>
       </c>
       <c r="O15" s="13">
-        <f>N15*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4356</v>
       </c>
       <c r="P15" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>52756</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>94</v>
       </c>
@@ -1885,7 +1966,7 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.35</v>
+        <v>9.6305555555555564</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>72</v>
@@ -1912,15 +1993,15 @@
         <v>59300</v>
       </c>
       <c r="O16" s="13">
-        <f>N16*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5337</v>
       </c>
       <c r="P16" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>64637</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>95</v>
       </c>
@@ -1942,7 +2023,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0222222222222221</v>
+        <v>9.3027777777777771</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>72</v>
@@ -1969,15 +2050,15 @@
         <v>56000</v>
       </c>
       <c r="O17" s="13">
-        <f>N17*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5040</v>
       </c>
       <c r="P17" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>61040</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>96</v>
       </c>
@@ -1999,7 +2080,7 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2527777777777782</v>
+        <v>8.5333333333333332</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>22</v>
@@ -2026,15 +2107,15 @@
         <v>63200</v>
       </c>
       <c r="O18" s="13">
-        <f>N18*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5688</v>
       </c>
       <c r="P18" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>68888</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>97</v>
       </c>
@@ -2056,7 +2137,7 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7611111111111111</v>
+        <v>8.0416666666666661</v>
       </c>
       <c r="H19" t="s">
         <v>80</v>
@@ -2083,15 +2164,15 @@
         <v>51700</v>
       </c>
       <c r="O19" s="13">
-        <f>N19*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4653</v>
       </c>
       <c r="P19" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>56353</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>98</v>
       </c>
@@ -2113,7 +2194,7 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6638888888888888</v>
+        <v>7.9444444444444446</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>80</v>
@@ -2140,15 +2221,15 @@
         <v>49600</v>
       </c>
       <c r="O20" s="13">
-        <f>N20*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4464</v>
       </c>
       <c r="P20" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>54064</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>99</v>
       </c>
@@ -2170,7 +2251,7 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1388888888888893</v>
+        <v>7.4194444444444443</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>35</v>
@@ -2197,15 +2278,15 @@
         <v>45100</v>
       </c>
       <c r="O21" s="13">
-        <f>N21*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4059</v>
       </c>
       <c r="P21" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>49159</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>100</v>
       </c>
@@ -2227,7 +2308,7 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0805555555555557</v>
+        <v>6.3611111111111107</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
@@ -2254,15 +2335,15 @@
         <v>42100</v>
       </c>
       <c r="O22" s="13">
-        <f>N22*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>3789</v>
       </c>
       <c r="P22" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>45889</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>101</v>
       </c>
@@ -2284,7 +2365,7 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7944444444444443</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
@@ -2311,15 +2392,15 @@
         <v>62800</v>
       </c>
       <c r="O23" s="13">
-        <f>N23*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5652</v>
       </c>
       <c r="P23" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>68452</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>102</v>
       </c>
@@ -2341,7 +2422,7 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7666666666666666</v>
+        <v>6.0472222222222225</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>72</v>
@@ -2368,15 +2449,15 @@
         <v>54700</v>
       </c>
       <c r="O24" s="13">
-        <f>N24*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4923</v>
       </c>
       <c r="P24" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>59623</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>103</v>
       </c>
@@ -2398,7 +2479,7 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6222222222222222</v>
+        <v>5.9027777777777777</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>72</v>
@@ -2425,15 +2506,15 @@
         <v>52600</v>
       </c>
       <c r="O25" s="13">
-        <f>N25*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4734</v>
       </c>
       <c r="P25" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>57334</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>104</v>
       </c>
@@ -2455,7 +2536,7 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5305555555555554</v>
+        <v>5.8111111111111109</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>20</v>
@@ -2482,15 +2563,15 @@
         <v>58500</v>
       </c>
       <c r="O26" s="13">
-        <f>N26*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5265</v>
       </c>
       <c r="P26" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>63765</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>105</v>
       </c>
@@ -2512,7 +2593,7 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4944444444444445</v>
+        <v>5.7750000000000004</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>72</v>
@@ -2539,15 +2620,15 @@
         <v>46500</v>
       </c>
       <c r="O27" s="13">
-        <f>N27*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4185</v>
       </c>
       <c r="P27" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>50685</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>106</v>
       </c>
@@ -2569,7 +2650,7 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1694444444444443</v>
+        <v>5.45</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>72</v>
@@ -2596,15 +2677,15 @@
         <v>56200</v>
       </c>
       <c r="O28" s="13">
-        <f>N28*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5058</v>
       </c>
       <c r="P28" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>61258</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -2626,7 +2707,7 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.875</v>
+        <v>5.1555555555555559</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>20</v>
@@ -2653,15 +2734,15 @@
         <v>54900</v>
       </c>
       <c r="O29" s="13">
-        <f>N29*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4941</v>
       </c>
       <c r="P29" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>59841</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>108</v>
       </c>
@@ -2683,7 +2764,7 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8722222222222222</v>
+        <v>5.1527777777777777</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>22</v>
@@ -2710,15 +2791,15 @@
         <v>47900</v>
       </c>
       <c r="O30" s="13">
-        <f>N30*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4311</v>
       </c>
       <c r="P30" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>52211</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>109</v>
       </c>
@@ -2740,7 +2821,7 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6222222222222222</v>
+        <v>4.9027777777777777</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>72</v>
@@ -2767,15 +2848,15 @@
         <v>49600</v>
       </c>
       <c r="O31" s="13">
-        <f>N31*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4464</v>
       </c>
       <c r="P31" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>54064</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
@@ -2797,7 +2878,7 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6138888888888889</v>
+        <v>4.8944444444444448</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>72</v>
@@ -2824,15 +2905,15 @@
         <v>35600</v>
       </c>
       <c r="O32" s="13">
-        <f>N32*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>3204</v>
       </c>
       <c r="P32" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>38804</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>111</v>
       </c>
@@ -2854,7 +2935,7 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4861111111111112</v>
+        <v>4.7666666666666666</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>80</v>
@@ -2881,15 +2962,15 @@
         <v>58500</v>
       </c>
       <c r="O33" s="13">
-        <f>N33*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>5265</v>
       </c>
       <c r="P33" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>63765</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>112</v>
       </c>
@@ -2911,7 +2992,7 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.45</v>
+        <v>4.7305555555555552</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>72</v>
@@ -2938,15 +3019,15 @@
         <v>51400</v>
       </c>
       <c r="O34" s="13">
-        <f>N34*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>4626</v>
       </c>
       <c r="P34" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>56026</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -2968,7 +3049,7 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61111111111111116</v>
+        <v>3.8916666666666666</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>22</v>
@@ -2995,15 +3076,15 @@
         <v>38600</v>
       </c>
       <c r="O35" s="13">
-        <f>N35*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>3474</v>
       </c>
       <c r="P35" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>42074</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>114</v>
       </c>
@@ -3025,7 +3106,7 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52777777777777779</v>
+        <v>3.8083333333333331</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>72</v>
@@ -3052,15 +3133,15 @@
         <v>40500</v>
       </c>
       <c r="O36" s="13">
-        <f>N36*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>3645</v>
       </c>
       <c r="P36" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>44145</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>115</v>
       </c>
@@ -3082,7 +3163,7 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4638888888888886</v>
+        <v>10.744444444444444</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>33</v>
@@ -3109,15 +3190,15 @@
         <v>96400</v>
       </c>
       <c r="O37" s="13">
-        <f>N37*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>8676</v>
       </c>
       <c r="P37" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>105076</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>116</v>
       </c>
@@ -3139,7 +3220,7 @@
       </c>
       <c r="G38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10555555555555556</v>
+        <v>3.3861111111111111</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>35</v>
@@ -3166,16 +3247,16 @@
         <v>37000</v>
       </c>
       <c r="O38" s="13">
-        <f>N38*Pension_Rate</f>
+        <f t="shared" si="5"/>
         <v>3330</v>
       </c>
       <c r="P38" s="13">
-        <f>Annual_Salary+Pension</f>
+        <f t="shared" si="6"/>
         <v>40330</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:N38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N38">
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="1">
@@ -3187,32 +3268,195 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.69140625" customWidth="1"/>
-    <col min="2" max="2" width="17.84375" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.15" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:1" ht="22.3" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:1" ht="22.35" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D408545-1901-4732-9022-382FE829AA94}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
